--- a/Check-List QA Fresh Store.xlsx
+++ b/Check-List QA Fresh Store.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Paula\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Paula\Desktop\Git treinamento\Desafio-DIO-QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A29AD5-907C-412A-917E-BF4666828DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717B3B58-E774-4B55-AA46-B8D28DCD11A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7DBDA580-3ED5-466A-A32A-F83C38D30739}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{7DBDA580-3ED5-466A-A32A-F83C38D30739}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcionalidades" sheetId="1" r:id="rId1"/>
-    <sheet name="Cenários" sheetId="2" r:id="rId2"/>
+    <sheet name="Cenários BDD" sheetId="2" r:id="rId2"/>
     <sheet name="Foto 1" sheetId="3" r:id="rId3"/>
     <sheet name="Foto 2" sheetId="4" r:id="rId4"/>
     <sheet name="Foto 3" sheetId="5" r:id="rId5"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>1. Tela de Login</t>
   </si>
@@ -1251,24 +1251,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,90 +1361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1992,59 +1992,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
@@ -2058,28 +2058,28 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="65" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2089,28 +2089,28 @@
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
@@ -2124,14 +2124,14 @@
       <c r="E10" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -2145,12 +2145,12 @@
       <c r="E11" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
@@ -2164,29 +2164,29 @@
       <c r="E12" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
     </row>
     <row r="14" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -2200,12 +2200,12 @@
       <c r="E14" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -2219,12 +2219,12 @@
       <c r="E15" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
@@ -2238,29 +2238,29 @@
       <c r="E16" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -2274,12 +2274,12 @@
       <c r="E18" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -2293,12 +2293,12 @@
       <c r="E19" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -2312,12 +2312,12 @@
       <c r="E20" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
@@ -2331,27 +2331,27 @@
       <c r="E21" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
     </row>
     <row r="23" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -2365,12 +2365,12 @@
       <c r="E23" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
@@ -2384,12 +2384,12 @@
       <c r="E24" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -2403,12 +2403,12 @@
       <c r="E25" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
@@ -2422,27 +2422,27 @@
       <c r="E26" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="97"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
     </row>
     <row r="28" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -2456,12 +2456,12 @@
       <c r="E28" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
@@ -2475,12 +2475,12 @@
       <c r="E29" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="65"/>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -2494,12 +2494,12 @@
       <c r="E30" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
@@ -2513,27 +2513,27 @@
       <c r="E31" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
     </row>
     <row r="33" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
@@ -2545,12 +2545,12 @@
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="74"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
     </row>
     <row r="34" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
@@ -2562,12 +2562,12 @@
       <c r="C34" s="2"/>
       <c r="D34" s="8"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
@@ -2579,12 +2579,12 @@
       <c r="C35" s="2"/>
       <c r="D35" s="8"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
@@ -2596,63 +2596,63 @@
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="97"/>
     </row>
     <row r="38" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
     </row>
     <row r="40" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
@@ -2662,16 +2662,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B17:K17"/>
@@ -2688,21 +2693,16 @@
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="F23:K23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -2732,9 +2732,9 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,7 +2882,9 @@
       <c r="D8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="59" t="s">
+        <v>92</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -2899,7 +2901,9 @@
       <c r="D9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="59" t="s">
+        <v>92</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
